--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/EUNK_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/EUNK_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0002260740556402739</v>
+        <v>-0.0005401660162166501</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0001197019694270662</v>
+        <v>-0.0007405693063772811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01037226496304482</v>
+        <v>0.01054195041766465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001075838804636071</v>
+        <v>0.0001111327186085</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03588154164087298</v>
+        <v>-0.03295577014098749</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00675223503216324</v>
+        <v>-0.007766999066432578</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0001197019694270662</v>
+        <v>-0.0007405693063772811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006895491076543248</v>
+        <v>0.006715976339307705</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02789817959501817</v>
+        <v>0.03326857825266738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0003475172712490986</v>
+        <v>-0.0002260740556402739</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003419433661617788</v>
+        <v>-0.0001197019694270662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01086453323544596</v>
+        <v>0.01037226496304482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00011803808242411</v>
+        <v>0.0001075838804636071</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03468553812256914</v>
+        <v>-0.03588154164087298</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00687956517483912</v>
+        <v>-0.00675223503216324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003419433661617788</v>
+        <v>-0.0001197019694270662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007583574840138774</v>
+        <v>0.006895491076543248</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04711054870389009</v>
+        <v>0.02789817959501817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0004822209337204837</v>
+        <v>0.0003475172712490986</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0003413316024689639</v>
+        <v>0.0003419433661617788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01048823692943543</v>
+        <v>0.01086453323544597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001100031138879731</v>
+        <v>0.00011803808242411</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03716447445167737</v>
+        <v>-0.03468553812256914</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006509359215982058</v>
+        <v>-0.00687956517483912</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003413316024689639</v>
+        <v>0.0003419433661617788</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007762708141270225</v>
+        <v>0.007583574840138774</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03897440036640254</v>
+        <v>0.04711054870389009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0003412980030305408</v>
+        <v>0.0004822209337204837</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.76740184229074e-05</v>
+        <v>0.0003413316024689639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01029210002178149</v>
+        <v>0.01048823692943543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001059273228583545</v>
+        <v>0.0001100031138879731</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0343745158145834</v>
+        <v>-0.03716447445167737</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00750989984802361</v>
+        <v>-0.006509359215982058</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.76740184229074e-05</v>
+        <v>0.0003413316024689639</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006788767206719837</v>
+        <v>0.007762708141270225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.037703090313846</v>
+        <v>0.03897440036640254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.259685185847509e-05</v>
+        <v>-0.0003412980030305408</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0002262358595837011</v>
+        <v>-2.76740184229074e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01009649181981292</v>
+        <v>0.01029210002178149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001019391470675492</v>
+        <v>0.0001059273228583545</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03209194939703686</v>
+        <v>-0.0343745158145834</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006846388327674231</v>
+        <v>-0.00750989984802361</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002262358595837011</v>
+        <v>-2.76740184229074e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006595582517329612</v>
+        <v>0.006788767206719837</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0298615593892686</v>
+        <v>0.037703090313846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001285514307862273</v>
+        <v>1.259685185847509e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001557376517614117</v>
+        <v>0.0002262358595837011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01064382364573191</v>
+        <v>0.01009649181981292</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001132909818014416</v>
+        <v>0.0001019391470675491</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03210612780190192</v>
+        <v>-0.03209194939703686</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006712746455003166</v>
+        <v>-0.006846388327674231</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0001557376517614117</v>
+        <v>0.0002262358595837011</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007295937475317371</v>
+        <v>0.006595582517329612</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0317008093613298</v>
+        <v>0.0298615593892686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0003893269289838003</v>
+        <v>0.0001285514307862273</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0003625393955477563</v>
+        <v>-0.0001557376517614117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01032670245956644</v>
+        <v>0.01064382364573191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001066407836884156</v>
+        <v>0.0001132909818014416</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03011829249659237</v>
+        <v>-0.03210612780190192</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006999939336981592</v>
+        <v>-0.006712746455003166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003625393955477563</v>
+        <v>-0.0001557376517614117</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00726978291389424</v>
+        <v>0.007295937475317371</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03396578664370931</v>
+        <v>0.0317008093613298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.490615732298506e-05</v>
+        <v>0.0003893269289838003</v>
       </c>
       <c r="B9" t="n">
-        <v>4.344535124789495e-05</v>
+        <v>0.0003625393955477563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01091984449306143</v>
+        <v>0.01032670245956644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001192430037526441</v>
+        <v>0.0001066407836884156</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0327135038539671</v>
+        <v>-0.03011829249659237</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007486435162815275</v>
+        <v>-0.006999939336981592</v>
       </c>
       <c r="G9" t="n">
-        <v>4.344535124789495e-05</v>
+        <v>0.0003625393955477563</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007109936663334815</v>
+        <v>0.00726978291389424</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03966349038651806</v>
+        <v>0.03396578664370931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>-4.490615732298506e-05</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.344535124789495e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01091984449306143</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001192430037526441</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0327135038539671</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.007486435162815275</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.344535124789495e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.007109936663334815</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03966349038651806</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>6.171045754147658e-05</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>-0.0002081412561053542</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.01052987785029537</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>0.0001108783275421409</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.03528718902828809</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.006942608483500978</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>-0.0002081412561053542</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.00704015555370413</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.03195970885479804</v>
       </c>
     </row>
